--- a/mosip_master/xlsx/device_master.xlsx
+++ b/mosip_master/xlsx/device_master.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStuff\MOSIP\githubrepos\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F0D343-998E-4B41-B0D4-7332641445C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$37</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,93 +30,89 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
   <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mac_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dspec_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zone_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regcntr_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mock IRIS Scanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85-BB-97-4B-14-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mock FingerPrint Scanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mock Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZT</t>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mac_address</t>
+  </si>
+  <si>
+    <t>serial_num</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>dspec_id</t>
+  </si>
+  <si>
+    <t>zone_code</t>
+  </si>
+  <si>
+    <t>regcntr_id</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>Mock IRIS Scanner</t>
+  </si>
+  <si>
+    <t>85-BB-97-4B-14-05</t>
+  </si>
+  <si>
+    <t>RBT</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Mock FingerPrint Scanner</t>
+  </si>
+  <si>
+    <t>Mock Camera</t>
+  </si>
+  <si>
+    <t>KTA</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>YSF</t>
+  </si>
+  <si>
+    <t>TTA</t>
+  </si>
+  <si>
+    <t>TZT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,25 +121,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -151,102 +136,377 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.43"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -278,11 +538,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>1001</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -291,27 +551,27 @@
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>327</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>10001</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>2001</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -320,27 +580,27 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>165</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>10001</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>3001</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -349,27 +609,27 @@
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>736</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="1">
         <v>10001</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -378,27 +638,27 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>327</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="1">
         <v>10002</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>2002</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -407,27 +667,27 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>165</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>10002</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>3002</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -436,27 +696,27 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>736</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="1">
         <v>10002</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>1003</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -465,27 +725,27 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>327</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="1">
         <v>10003</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>2003</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -494,27 +754,27 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="1">
         <v>10003</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>3003</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -523,27 +783,27 @@
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1">
         <v>736</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>10003</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>1004</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -552,27 +812,27 @@
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1">
         <v>327</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>10004</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>2004</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -581,27 +841,27 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1">
         <v>165</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>10004</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>3004</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -610,27 +870,27 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1">
         <v>736</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>10004</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>1005</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -639,27 +899,27 @@
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>327</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>10005</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>2005</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -668,27 +928,27 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>10005</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>3005</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -697,27 +957,27 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1">
         <v>736</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>10005</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>1006</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -726,27 +986,27 @@
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>327</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="1">
         <v>10006</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>2006</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -755,27 +1015,27 @@
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1">
         <v>165</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="1">
         <v>10006</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>3006</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -784,27 +1044,27 @@
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1">
         <v>736</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="1">
         <v>10006</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>1007</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -813,27 +1073,27 @@
       <c r="D20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="1">
         <v>327</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="1">
         <v>10007</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>2007</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -842,27 +1102,27 @@
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="1">
         <v>165</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="1">
         <v>10007</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>3007</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -871,27 +1131,27 @@
       <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="1">
         <v>736</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="1">
         <v>10007</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>1008</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -900,27 +1160,27 @@
       <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="1">
         <v>327</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="1">
         <v>10008</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>2008</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -929,27 +1189,27 @@
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>165</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="1">
         <v>10008</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>3008</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -958,27 +1218,27 @@
       <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="1">
         <v>736</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="1">
         <v>10008</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>1009</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -987,27 +1247,27 @@
       <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="1">
         <v>327</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="1">
         <v>10009</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>2009</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1016,27 +1276,27 @@
       <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="1">
         <v>165</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="1">
         <v>10009</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>3009</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1045,27 +1305,27 @@
       <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="1">
         <v>736</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="1">
         <v>10009</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="1">
         <v>1010</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -1074,27 +1334,27 @@
       <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="1">
         <v>327</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="1">
         <v>10010</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="1">
         <v>2010</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1103,27 +1363,27 @@
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="1">
         <v>165</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="1">
         <v>10010</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="1">
         <v>3010</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1132,27 +1392,27 @@
       <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="1">
         <v>736</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="1">
         <v>10010</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="1">
         <v>1011</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1161,27 +1421,27 @@
       <c r="D32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="1">
         <v>327</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="1">
         <v>10011</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="1">
         <v>2011</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -1190,27 +1450,27 @@
       <c r="D33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="1">
         <v>165</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="1">
         <v>10011</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="1">
         <v>3011</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1219,27 +1479,27 @@
       <c r="D34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="1">
         <v>736</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="1">
         <v>10011</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>1012</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -1248,27 +1508,27 @@
       <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="4">
         <v>3456789012</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="1">
         <v>327</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="1">
         <v>10012</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="1">
         <v>2012</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -1277,27 +1537,27 @@
       <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="4">
         <v>1234567890</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="1">
         <v>165</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="1">
         <v>10012</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="1">
         <v>3012</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1306,16 +1566,16 @@
       <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="4">
         <v>2345678901</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="1">
         <v>736</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="1">
         <v>10012</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1323,14 +1583,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:J37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>